--- a/3 курс/Excel/Lab2/lab2.xlsx
+++ b/3 курс/Excel/Lab2/lab2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\191758\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Факультет ИТиАБД\ПИ19-3\Жевагина Анастасия Владимировна - 191758\Excel\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200845B5-B132-4C3C-B6B3-036946F47206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43F3ED3-2F6A-4CE1-ACBB-6A5F18093A64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{54E60543-6CB4-4D93-BD26-D2627EB14A43}"/>
   </bookViews>
@@ -17,19 +17,20 @@
     <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$L$3:$L$95</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$M$4:$M$95</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Лист1!$E$4:$E$95</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Лист1!$J$3:$J$95</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Лист1!$N$3:$N$95</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$N$3:$N$95</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$K$3:$K$95</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$H$3:$H$95</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$F$3:$F$95</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Лист1!$B$3:$B$95</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Лист1!$G$3:$G$95</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Лист1!$I$4:$I$95</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Лист1!$D$3:$D$95</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$N$3:$N$95</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$I$4:$I$95</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Лист1!$N$3:$N$95</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Лист1!$L$3:$L$95</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Лист1!$J$3:$J$95</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Лист1!$N$3:$N$95</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$B$3:$B$95</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$D$3:$D$95</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$F$3:$F$95</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$G$3:$G$95</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Лист1!$H$3:$H$95</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Лист1!$E$4:$E$95</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Лист1!$K$3:$K$95</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Лист1!$M$4:$M$95</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -886,18 +887,1258 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ГАЗПРОМ ао</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Цена2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$3:$G$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>143.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>143.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>139.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>148.96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>131.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>141.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>142.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>130.31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>143.82</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>152.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>138.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>153.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>145.85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>148.19</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>134.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>135.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>136.09</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>136.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>141.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>147.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>168.47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>145.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>139.51</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>137.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>134.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>134.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>138.84</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>148.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>154.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>149.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>127.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>136.75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>120.28</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>118.49</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>116.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>117.97</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>122.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>125.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>132.15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>143.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>143.16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>142.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>145.93</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>141.01</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>143.79</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>149.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>162.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>155.47</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>161.29</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>153.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>162.82</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>158.99</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>149.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>163.95</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>215.1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>232.83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>236.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>232.15</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>225.9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>257.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>256.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>226.7</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>202.65</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>181.41</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>199.95</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>194.31</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>182.59</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>182.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7528-EF43-8622-BF0C81C1F53A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Сбербанк</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Цена3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$3:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>41244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41518</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41548</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41579</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41609</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42339</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42370</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42401</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42430</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42461</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42491</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42705</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42736</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42767</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42795</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42856</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42887</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42917</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42948</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42979</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43009</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43040</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43101</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43132</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43160</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43252</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43282</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43313</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43344</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>43374</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43405</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43435</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$K$3:$K$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>92.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>101.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75.52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>76.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75.91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62.88</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>72.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90.53</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>101.26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>123.55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>132.56</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>139.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>143.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>145.34</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>147.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>158.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>173.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>165.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>155.93</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>145.59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>164.53</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>183.51</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>192.33</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>193.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>224.35</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>225.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>264.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>272.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>253.57</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>226.99</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>222.36</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>214.86</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>203.32</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>189.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>186.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>217.9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>207.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>214.42</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>225.17</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>233.24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>238.55</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>233.49</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>224.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>227.71</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>234.89</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>233.98</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>254.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>252.2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>233.36</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>187.21</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>197.25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>200.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>203.22</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>221.57</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>226.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7528-EF43-8622-BF0C81C1F53A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="901683423"/>
+        <c:axId val="901685071"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$1:$C$2</c:f>
+              <c:f>Лист1!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>ВТБ ао</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Цена*1000</c:v>
+                  <c:v>Цена</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1204,288 +2445,288 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$3:$C$95</c:f>
+              <c:f>Лист1!$B$3:$B$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
                 <c:pt idx="0">
-                  <c:v>53.589999999999996</c:v>
+                  <c:v>5.3589999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.82</c:v>
+                  <c:v>5.5820000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.88</c:v>
+                  <c:v>5.5879999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.7</c:v>
+                  <c:v>4.9700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.29</c:v>
+                  <c:v>4.929E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.010000000000005</c:v>
+                  <c:v>4.7010000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.61</c:v>
+                  <c:v>4.6609999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.5</c:v>
+                  <c:v>4.4499999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.67</c:v>
+                  <c:v>4.267E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.35</c:v>
+                  <c:v>4.4350000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.28</c:v>
+                  <c:v>4.6280000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.660000000000004</c:v>
+                  <c:v>4.9660000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.44</c:v>
+                  <c:v>4.5440000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.13</c:v>
+                  <c:v>4.2130000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.6</c:v>
+                  <c:v>3.9600000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.65</c:v>
+                  <c:v>3.8649999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.9</c:v>
+                  <c:v>4.7899999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41.099999999999994</c:v>
+                  <c:v>4.1099999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.800000000000004</c:v>
+                  <c:v>3.9800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.4</c:v>
+                  <c:v>3.8399999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38.04</c:v>
+                  <c:v>3.8039999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.93</c:v>
+                  <c:v>3.993E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46.699999999999996</c:v>
+                  <c:v>4.6699999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>67</c:v>
+                  <c:v>6.7000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>68.94</c:v>
+                  <c:v>6.8940000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>68</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>60</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65.5</c:v>
+                  <c:v>6.5500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>80.25</c:v>
+                  <c:v>8.0250000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>79</c:v>
+                  <c:v>7.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>69</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>67.7</c:v>
+                  <c:v>6.7699999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>72.349999999999994</c:v>
+                  <c:v>7.2349999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>71</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>79.699999999999989</c:v>
+                  <c:v>7.9699999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>73.7</c:v>
+                  <c:v>7.3700000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>73.400000000000006</c:v>
+                  <c:v>7.3400000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>76.679999999999993</c:v>
+                  <c:v>7.6679999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>70.05</c:v>
+                  <c:v>7.0050000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>68.400000000000006</c:v>
+                  <c:v>6.8400000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>68</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>67.41</c:v>
+                  <c:v>6.7409999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>68.489999999999995</c:v>
+                  <c:v>6.8489999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>72.099999999999994</c:v>
+                  <c:v>7.2099999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>67.75</c:v>
+                  <c:v>6.7750000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>69.400000000000006</c:v>
+                  <c:v>6.9400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>74</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>68.97</c:v>
+                  <c:v>6.8970000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>66.08</c:v>
+                  <c:v>6.608E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>66.25</c:v>
+                  <c:v>6.6250000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>66.710000000000008</c:v>
+                  <c:v>6.6710000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>66.150000000000006</c:v>
+                  <c:v>6.615E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>59.69</c:v>
+                  <c:v>5.969E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>64.56</c:v>
+                  <c:v>6.4560000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>61.589999999999996</c:v>
+                  <c:v>6.1589999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>60</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50.78</c:v>
+                  <c:v>5.0779999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>47.32</c:v>
+                  <c:v>4.7320000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>49.4</c:v>
+                  <c:v>4.9399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>52.76</c:v>
+                  <c:v>5.2760000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>51.66</c:v>
+                  <c:v>5.1659999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>53.97</c:v>
+                  <c:v>5.3969999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>49.889999999999993</c:v>
+                  <c:v>4.9889999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>48.01</c:v>
+                  <c:v>4.8009999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>48.28</c:v>
+                  <c:v>4.8280000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>41.4</c:v>
+                  <c:v>4.1399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>40.76</c:v>
+                  <c:v>4.0759999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>36.58</c:v>
+                  <c:v>3.6580000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>37.299999999999997</c:v>
+                  <c:v>3.73E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>33.85</c:v>
+                  <c:v>3.3849999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>37.769999999999996</c:v>
+                  <c:v>3.7769999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>35.9</c:v>
+                  <c:v>3.5900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>35.645000000000003</c:v>
+                  <c:v>3.5645000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>35.5</c:v>
+                  <c:v>3.5499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>36.704999999999998</c:v>
+                  <c:v>3.6705000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>39.879999999999995</c:v>
+                  <c:v>3.9879999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42.5</c:v>
+                  <c:v>4.2500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>38.68</c:v>
+                  <c:v>3.8679999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42.594999999999999</c:v>
+                  <c:v>4.2595000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>43.09</c:v>
+                  <c:v>4.3090000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>45.330000000000005</c:v>
+                  <c:v>4.5330000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>45.900000000000006</c:v>
+                  <c:v>4.5900000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>46.4</c:v>
+                  <c:v>4.6399999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>43.33</c:v>
+                  <c:v>4.333E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>32.599999999999994</c:v>
+                  <c:v>3.2599999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>34.9</c:v>
+                  <c:v>3.49E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>36.31</c:v>
+                  <c:v>3.6310000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>35.049999999999997</c:v>
+                  <c:v>3.5049999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>38.754999999999995</c:v>
+                  <c:v>3.8754999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>35.950000000000003</c:v>
+                  <c:v>3.5950000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,1230 +2735,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7528-EF43-8622-BF0C81C1F53A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$G$1:$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ГАЗПРОМ ао</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Цена2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$3:$A$95</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="93"/>
-                <c:pt idx="0">
-                  <c:v>41244</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41275</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41306</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41334</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41395</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41426</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41487</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41518</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41548</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41579</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41609</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41640</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41671</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41699</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41730</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41760</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41821</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41852</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41883</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41913</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41944</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41974</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42064</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42095</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42125</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42156</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42186</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42217</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42248</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42278</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42309</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42339</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42370</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42401</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42430</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42461</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42491</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42522</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42552</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>42583</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42614</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>42644</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42675</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>42705</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>42736</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>42795</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>42826</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>42856</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>42917</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>42948</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>42979</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43009</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43040</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43070</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43101</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43132</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43160</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43191</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43221</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43252</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43282</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43313</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43374</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43405</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43435</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>43466</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>43497</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43525</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43556</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43586</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43617</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43647</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43678</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43709</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43739</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43770</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43800</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43831</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>43862</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44013</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44044</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$G$3:$G$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="93"/>
-                <c:pt idx="0">
-                  <c:v>143.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>142.09</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>137.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>134.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>124.15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>123.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>109.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>131.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>144.15</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>150.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>143.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>138.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>145.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>139.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>135.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>128.77000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>141.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>148.96</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>131.94999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>137.9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>141.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>142.86000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>130.31</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>143.82</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>152.94999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>138.9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>153.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>145.85</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>142.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>148.19</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>134.55000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>135.75</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>136.09</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>136.6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>141.4</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>147.75</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>168.47</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>145.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>139.51</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>137.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>134.94999999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>134.9</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>138.84</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>148.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>154.55000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>149.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>127.9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>136.75</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>120.28</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>118.49</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>116.1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>117.97</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>122.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>125.9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>132.15</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>130.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>143.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>143.16</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>142.33000000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>145.93</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>141.01</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>143.79</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>149.94999999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>162.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>155.47</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>161.29</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>153.5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>162.82</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>158.99</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>149.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>163.95</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>215.1</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>232.83</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>236.9</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>232.15</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>225.9</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>257.54000000000002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>256.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>226.7</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>202.65</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>181.41</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>199.95</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>194.31</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>182.59</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>182.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7528-EF43-8622-BF0C81C1F53A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$K$1:$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Сбербанк</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Цена3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$3:$A$95</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="93"/>
-                <c:pt idx="0">
-                  <c:v>41244</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41275</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41306</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41334</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41395</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41426</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41456</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41487</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41518</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41548</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41579</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41609</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>41640</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41671</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41699</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41730</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41760</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41821</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41852</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41883</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>41913</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>41944</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>41974</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42036</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42064</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42095</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42125</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42156</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42186</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42217</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42248</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42278</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42309</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42339</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42370</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42401</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42430</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42461</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42491</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42522</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42552</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>42583</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>42614</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>42644</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42675</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>42705</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>42736</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>42795</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>42826</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>42856</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>42917</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>42948</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>42979</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>43009</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>43040</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43070</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>43101</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43132</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>43160</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>43191</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43221</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>43252</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>43282</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>43313</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>43344</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43374</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>43405</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43435</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>43466</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>43497</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>43525</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>43556</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>43586</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>43617</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>43647</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>43678</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>43709</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>43739</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>43770</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>43800</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>43831</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>43862</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>43952</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>43983</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>44013</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>44044</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$K$3:$K$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="93"/>
-                <c:pt idx="0">
-                  <c:v>92.94</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>109.59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>104.57</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98.86</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>93.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95.23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>88.23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>97.86</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>102.74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>103.07</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>101.17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>91.16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>83.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>72.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>84.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>84.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>73.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>73.209999999999994</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>75.52</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>76.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>72.25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>54.9</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>61.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>75.91</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>62.88</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>76.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>73.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>72.349999999999994</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>72.3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>74.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>75.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>90.53</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>102.9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>101.26</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>96.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>109.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>123.55</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>132.56</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>139.15</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>143.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>145.34</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>147.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>158.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>173.25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>172.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>159.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>165.2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>155.93</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>145.59</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>164.53</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>183.51</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>192.33</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>193.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>224.35</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>225.2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>264.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>272.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>253.57</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>226.99</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>222.36</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>214.86</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>203.32</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>189.8</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>186.3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>217.9</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>207.8</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>214.42</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>225.17</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>233.24</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>238.55</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>233.49</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>224.2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>227.71</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>234.89</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>233.98</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>254.75</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>252.2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>233.36</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>187.21</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>197.25</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>200.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>203.22</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>221.57</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>226.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7528-EF43-8622-BF0C81C1F53A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2729,9 +2746,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="901683423"/>
-        <c:axId val="901685071"/>
+        <c:axId val="968388383"/>
+        <c:axId val="1127643055"/>
       </c:lineChart>
       <c:dateAx>
         <c:axId val="901683423"/>
@@ -2839,6 +2857,64 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1127643055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968388383"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="968388383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1127643055"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5864,7 +5940,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5925,7 +6001,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5986,7 +6062,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6047,7 +6123,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6117,7 +6193,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6178,7 +6254,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6239,7 +6315,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6300,7 +6376,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6361,7 +6437,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6422,7 +6498,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6483,7 +6559,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6553,7 +6629,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6610,162 +6686,26 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -6890,322 +6830,50 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -14980,8 +14648,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="961485" y="20941791"/>
-              <a:ext cx="5050047" cy="2834766"/>
+              <a:off x="961485" y="21139480"/>
+              <a:ext cx="5048250" cy="2863520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15058,8 +14726,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="961486" y="23772334"/>
-              <a:ext cx="5050047" cy="2834765"/>
+              <a:off x="962025" y="23996980"/>
+              <a:ext cx="5048250" cy="2863520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15139,8 +14807,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="962199" y="26604642"/>
-              <a:ext cx="5058319" cy="2833000"/>
+              <a:off x="962738" y="26856246"/>
+              <a:ext cx="5056522" cy="2861754"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15220,8 +14888,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6010640" y="18113607"/>
-              <a:ext cx="3846836" cy="2832407"/>
+              <a:off x="6008843" y="18284338"/>
+              <a:ext cx="3849532" cy="2861162"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15301,8 +14969,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6007219" y="20942169"/>
-              <a:ext cx="3850257" cy="2843373"/>
+              <a:off x="6005422" y="21139858"/>
+              <a:ext cx="3852953" cy="2872127"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15382,8 +15050,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6013232" y="23775486"/>
-              <a:ext cx="3853229" cy="2831613"/>
+              <a:off x="6011974" y="24000132"/>
+              <a:ext cx="3855386" cy="2860368"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15463,8 +15131,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6012600" y="26607096"/>
-              <a:ext cx="3853862" cy="2830546"/>
+              <a:off x="6011342" y="26858700"/>
+              <a:ext cx="3856019" cy="2859300"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15544,8 +15212,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9853695" y="18116383"/>
-              <a:ext cx="3849725" cy="2838617"/>
+              <a:off x="9854054" y="18288911"/>
+              <a:ext cx="3852421" cy="2865575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15625,8 +15293,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9853084" y="20946014"/>
-              <a:ext cx="3850336" cy="2835684"/>
+              <a:off x="9853443" y="21145500"/>
+              <a:ext cx="3853032" cy="2862641"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15706,8 +15374,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9860246" y="23776557"/>
-              <a:ext cx="3852160" cy="2834499"/>
+              <a:off x="9861145" y="24003000"/>
+              <a:ext cx="3854316" cy="2861457"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15787,8 +15455,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9857445" y="26609669"/>
-              <a:ext cx="3845975" cy="2836957"/>
+              <a:off x="9857804" y="26863070"/>
+              <a:ext cx="3848671" cy="2863914"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16279,8 +15947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FB82D-AB1F-4C1C-9042-3FAC7C131C18}">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="AC51" sqref="AC51"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
